--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/add_netSecurity.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/add_netSecurity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -209,30 +204,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/Network IAM of container,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Operation Guide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Name</t>
     </r>
   </si>
@@ -273,15 +244,19 @@
     </r>
   </si>
   <si>
-    <t>Security group is a kind of distributed virtual firewall with status, which users use to implement Virtual Machines</t>
+    <t>安全组是一种分布式、有状态的虚拟防火墙，用于实现云主机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create Time</t>
+    <t>Created at</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安全组是一种分布式、有状态的虚拟防火墙，用于实现云主机</t>
+    <t>Security group is a stateful distributed virtual firewall, used to realize the network identity and access management of the VM/Container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation Guide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,6 +285,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,13 +315,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,42 +670,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
     <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -723,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -745,10 +737,11 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -756,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -767,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -778,10 +771,14 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
